--- a/Resources/Data_Links.xlsx
+++ b/Resources/Data_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityhealthnetwork-my.sharepoint.com/personal/pascal_duchesneau_uhnresearch_ca/Documents/BootCamp Data Analytics/Module_20_Final_Project/Group_6_Final_Project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{294B9DC3-FE3F-4AE0-B519-1D611327FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{294B9DC3-FE3F-4AE0-B519-1D611327FE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C3E106-246B-4F72-A3BA-54EEBDE3A811}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4EF3F627-5611-4E00-A206-C7078E62EA77}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>House Sales in Ontario</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>https://www.kaggle.com/rajacsp/toronto-apartment-price</t>
+  </si>
+  <si>
+    <t>Vacancy Rate</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/n1/en/subjects/housing/vacancy_rates</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAE8C81-1AE1-4875-9D33-04949F0CCFDD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,6 +463,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
